--- a/Compass.Wpf/bin/Release/net6.0-windows/PackingInfo.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/PackingInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41DA87A-697E-4701-B35C-477EA6CACA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4D8DA-F0B0-40A3-A8D3-5CE41922A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDC187B9-F46D-4964-9A0E-541881F2A76B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDC187B9-F46D-4964-9A0E-541881F2A76B}"/>
   </bookViews>
   <sheets>
     <sheet name="PackInfo" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品宽(W) :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品高(H) :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t xml:space="preserve">       备注        Remark       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">产品宽(W) : </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -358,21 +358,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -432,24 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,9 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,31 +447,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,14 +812,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.25" style="1"/>
@@ -1359,90 +1347,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E2:E7"/>
@@ -1452,7 +1441,7 @@
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L项目名/ODP:FSO230244&amp;RPage &amp;P of &amp;N     FS装箱信息表</oddHeader>
-    <oddFooter>&amp;L填表人:徐洋洋&amp;C实际完工日期:7/7/2023&amp;R填表日期:7/7/2023</oddFooter>
+    <oddFooter>&amp;L填表人:徐洋洋&amp;C完工日期:7/7/2023&amp;R填表日期:7/7/2023</oddFooter>
   </headerFooter>
 </worksheet>
 </file>